--- a/docs/StructureDefinition-VAImmunization.xlsx
+++ b/docs/StructureDefinition-VAImmunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4696" uniqueCount="609">
   <si>
     <t>Path</t>
   </si>
@@ -339,6 +339,113 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>immunization-orderingFacility-identifier</t>
+  </si>
+  <si>
+    <t>STATION NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization-orderingFacility.identifier}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This Indian Health Service field indicated the hospital location ordering this immunization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>INSTITUTION @STATION NUMBER 9000010.11-1215:4-99</t>
+  </si>
+  <si>
+    <t>immunization-orderingFacility-name</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization-orderingFacility.name}
+</t>
+  </si>
+  <si>
+    <t>INSTITUTION @NAME 9000010.11-1215:4-.01</t>
+  </si>
+  <si>
+    <t>immunization-education-publication-language</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization.education.publication.language}
+</t>
+  </si>
+  <si>
+    <t>This is the language translation of this Vaccine Information Statement (VIS).</t>
+  </si>
+  <si>
+    <t>VACCINE INFORMATION STATEMENT FILE @LANGUAGE 920-.04</t>
+  </si>
+  <si>
+    <t>immunization-education-publicationDate</t>
+  </si>
+  <si>
+    <t>EDITION DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization.education.publicationDate}
+</t>
+  </si>
+  <si>
+    <t>This is the edition date of this Vaccine Information Statement distributed by the CDC.</t>
+  </si>
+  <si>
+    <t>VACCINE INFORMATION STATEMENT FILE @EDITION DATE 920-.02</t>
+  </si>
+  <si>
+    <t>immunization-education-documentType</t>
+  </si>
+  <si>
+    <t>VACCINE INFORMATION STATEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization.education.documentType}
+</t>
+  </si>
+  <si>
+    <t>This is the name of the Vaccine Information Statement associated with this immunization.</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION FILE @VACCINE INFORMATION STATEMENT 9999999.144-.01</t>
+  </si>
+  <si>
+    <t>immunization-maxNumberinSeries</t>
+  </si>
+  <si>
+    <t>MAX # IN SERIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization-maxNumberinSeries}
+</t>
+  </si>
+  <si>
+    <t>Max # in Series</t>
+  </si>
+  <si>
+    <t>(Optional) This is the maximum number of vaccinations that can be given for this immunization.   Enter the number between 0 and 8 that represents the maximum allowable vaccinations that can be given for this immunization.</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION FILE @MAX # IN SERIES 9999999.14-.05</t>
+  </si>
+  <si>
     <t>immunization-contraindicated</t>
   </si>
   <si>
@@ -355,114 +462,7 @@
     <t>This field allows the immunization to be recorded as contraindicated. Reminders will include a check to see if the previous immunization was  contraindicated before creating reminders.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>V IMMUNIZATION FILE @CONTRAINDICATED 9000010.11-.07</t>
-  </si>
-  <si>
-    <t>immunization-maxNumberinSeries</t>
-  </si>
-  <si>
-    <t>MAX # IN SERIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization-maxNumberinSeries}
-</t>
-  </si>
-  <si>
-    <t>Max # in Series</t>
-  </si>
-  <si>
-    <t>(Optional) This is the maximum number of vaccinations that can be given for this immunization.   Enter the number between 0 and 8 that represents the maximum allowable vaccinations that can be given for this immunization.</t>
-  </si>
-  <si>
-    <t>IMMUNIZATION FILE @MAX # IN SERIES 9999999.14-.05</t>
-  </si>
-  <si>
-    <t>immunization/education/documentType</t>
-  </si>
-  <si>
-    <t>VACCINE INFORMATION STATEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization.education.documentType}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>This is the name of the Vaccine Information Statement associated with this immunization.</t>
-  </si>
-  <si>
-    <t>IMMUNIZATION FILE @VACCINE INFORMATION STATEMENT 9999999.144-.01</t>
-  </si>
-  <si>
-    <t>immunization/education/publicationDate</t>
-  </si>
-  <si>
-    <t>EDITION DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization.education.publicationDate}
-</t>
-  </si>
-  <si>
-    <t>This is the edition date of this Vaccine Information Statement distributed by the CDC.</t>
-  </si>
-  <si>
-    <t>VACCINE INFORMATION STATEMENT FILE @EDITION DATE 920-.02</t>
-  </si>
-  <si>
-    <t>immunization/education/publication/language</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization.education.publication.language}
-</t>
-  </si>
-  <si>
-    <t>This is the language translation of this Vaccine Information Statement (VIS).</t>
-  </si>
-  <si>
-    <t>VACCINE INFORMATION STATEMENT FILE @LANGUAGE 920-.04</t>
-  </si>
-  <si>
-    <t>immunization-orderingFacility/name</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization-orderingFacility.name}
-</t>
-  </si>
-  <si>
-    <t>This Indian Health Service field indicated the hospital location ordering this immunization.</t>
-  </si>
-  <si>
-    <t>INSTITUTION @NAME 9000010.11-1215:4-.01</t>
-  </si>
-  <si>
-    <t>immunization-orderingFacility/identifier</t>
-  </si>
-  <si>
-    <t>STATION NUMBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/immunization-orderingFacility.identifier}
-</t>
-  </si>
-  <si>
-    <t>INSTITUTION @STATION NUMBER 9000010.11-1215:4-99</t>
   </si>
   <si>
     <t>Immunization.modifierExtension</t>
@@ -682,6 +682,9 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/sid/ndc</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -715,10 +718,13 @@
     <t>Immunization.vaccineCode.coding.code</t>
   </si>
   <si>
+    <t>NDC CODE (VA)</t>
+  </si>
+  <si>
     <t>Symbol in syntax defined by the system</t>
   </si>
   <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+    <t>This is the National Drug Code (NDC) for this lot.</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -727,6 +733,9 @@
     <t>Coding.code</t>
   </si>
   <si>
+    <t>IMMUNIZATION LOT FILE @NDC CODE (VA)  9999999.41-.18</t>
+  </si>
+  <si>
     <t>C*E.1</t>
   </si>
   <si>
@@ -736,16 +745,22 @@
     <t>Immunization.vaccineCode.coding.display</t>
   </si>
   <si>
+    <t>CDC FULL VACCINE NAME</t>
+  </si>
+  <si>
     <t>Representation defined by the system</t>
   </si>
   <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+    <t>This is the CDC Full Vaccine Name for this immunization.</t>
   </si>
   <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION FILE @CDC FULL VACCINE NAME 9999999.14-2</t>
   </si>
   <si>
     <t>C*E.2 - but note this is not well followed</t>
@@ -1188,6 +1203,9 @@
     <t>Immunization.site.coding.display</t>
   </si>
   <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
     <t>Immunization.site.coding.userSelected</t>
   </si>
   <si>
@@ -1516,6 +1534,9 @@
   </si>
   <si>
     <t>Immunization.practitioner.role.coding.code</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
     <t>AP</t>
@@ -2030,7 +2051,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.19140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.32421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3276,10 +3297,10 @@
         <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3345,7 +3366,7 @@
         <v>109</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>42</v>
@@ -3368,13 +3389,13 @@
         <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>43</v>
@@ -3392,13 +3413,13 @@
         <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3464,7 +3485,7 @@
         <v>109</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>42</v>
@@ -3487,13 +3508,13 @@
         <v>96</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>43</v>
@@ -3511,13 +3532,13 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3583,7 +3604,7 @@
         <v>109</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>42</v>
@@ -3606,13 +3627,13 @@
         <v>96</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>43</v>
@@ -3630,13 +3651,13 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3702,7 +3723,7 @@
         <v>109</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>42</v>
@@ -3725,13 +3746,13 @@
         <v>96</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>43</v>
@@ -3749,13 +3770,13 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3821,7 +3842,7 @@
         <v>109</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>42</v>
@@ -3844,13 +3865,13 @@
         <v>96</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>43</v>
@@ -3868,13 +3889,13 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -5122,7 +5143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>207</v>
       </c>
@@ -5138,7 +5159,7 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
@@ -5166,7 +5187,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>42</v>
@@ -5208,7 +5229,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -5226,10 +5247,10 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>42</v>
@@ -5243,7 +5264,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5269,13 +5290,13 @@
         <v>186</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5325,7 +5346,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5343,10 +5364,10 @@
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>42</v>
@@ -5358,15 +5379,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="E29" t="s" s="2">
         <v>43</v>
       </c>
@@ -5374,7 +5397,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>42</v>
@@ -5386,14 +5409,14 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -5442,7 +5465,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5457,13 +5480,13 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>42</v>
@@ -5475,15 +5498,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
@@ -5491,7 +5516,7 @@
         <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>42</v>
@@ -5503,14 +5528,14 @@
         <v>186</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -5559,7 +5584,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5574,13 +5599,13 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>42</v>
@@ -5594,7 +5619,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5620,16 +5645,16 @@
         <v>167</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -5678,7 +5703,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5696,10 +5721,10 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>42</v>
@@ -5713,14 +5738,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s" s="2">
         <v>43</v>
@@ -5744,13 +5769,13 @@
         <v>41</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -5799,7 +5824,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5814,13 +5839,13 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>42</v>
@@ -5834,7 +5859,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5857,13 +5882,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5914,7 +5939,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>52</v>
@@ -5932,16 +5957,16 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>42</v>
@@ -5949,7 +5974,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6064,7 +6089,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6181,7 +6206,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6207,13 +6232,13 @@
         <v>186</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6263,7 +6288,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6272,7 +6297,7 @@
         <v>52</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>42</v>
@@ -6298,7 +6323,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6324,13 +6349,13 @@
         <v>149</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6380,7 +6405,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6401,7 +6426,7 @@
         <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>42</v>
@@ -6415,14 +6440,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E38" t="s" s="2">
         <v>43</v>
@@ -6443,13 +6468,13 @@
         <v>186</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6499,7 +6524,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6514,7 +6539,7 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>42</v>
@@ -6534,7 +6559,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6557,13 +6582,13 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6614,7 +6639,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6632,16 +6657,16 @@
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>42</v>
@@ -6649,7 +6674,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6764,7 +6789,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6881,7 +6906,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6907,13 +6932,13 @@
         <v>186</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6963,7 +6988,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6972,7 +6997,7 @@
         <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>42</v>
@@ -6998,7 +7023,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7024,13 +7049,13 @@
         <v>149</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7080,7 +7105,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7101,7 +7126,7 @@
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>42</v>
@@ -7115,14 +7140,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E44" t="s" s="2">
         <v>43</v>
@@ -7143,13 +7168,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7199,7 +7224,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7214,7 +7239,7 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>42</v>
@@ -7234,14 +7259,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E45" t="s" s="2">
         <v>43</v>
@@ -7259,16 +7284,16 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7318,7 +7343,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7333,27 +7358,27 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7379,13 +7404,13 @@
         <v>167</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7435,7 +7460,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>52</v>
@@ -7453,13 +7478,13 @@
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>42</v>
@@ -7470,7 +7495,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7496,13 +7521,13 @@
         <v>174</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7531,52 +7556,52 @@
         <v>177</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>42</v>
@@ -7587,7 +7612,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7610,13 +7635,13 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7667,7 +7692,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7685,13 +7710,13 @@
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>42</v>
@@ -7702,14 +7727,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>43</v>
@@ -7727,13 +7752,13 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7784,7 +7809,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7799,13 +7824,13 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>42</v>
@@ -7814,19 +7839,19 @@
         <v>42</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E50" t="s" s="2">
         <v>43</v>
@@ -7847,10 +7872,10 @@
         <v>186</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7901,7 +7926,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7916,13 +7941,13 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>42</v>
@@ -7931,19 +7956,19 @@
         <v>42</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E51" t="s" s="2">
         <v>43</v>
@@ -7961,13 +7986,13 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8018,7 +8043,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -8033,13 +8058,13 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>42</v>
@@ -8053,7 +8078,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8079,10 +8104,10 @@
         <v>174</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8112,10 +8137,10 @@
         <v>177</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -8133,7 +8158,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8151,10 +8176,10 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>42</v>
@@ -8163,12 +8188,12 @@
         <v>42</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8283,7 +8308,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8400,7 +8425,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8519,7 +8544,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8634,7 +8659,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8751,7 +8776,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8835,7 +8860,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8853,10 +8878,10 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>42</v>
@@ -8870,7 +8895,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8896,13 +8921,13 @@
         <v>186</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8952,7 +8977,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8970,10 +8995,10 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>42</v>
@@ -8987,14 +9012,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E60" t="s" s="2">
         <v>43</v>
@@ -9015,14 +9040,14 @@
         <v>71</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -9071,7 +9096,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9086,13 +9111,13 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>42</v>
@@ -9106,7 +9131,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9132,14 +9157,14 @@
         <v>186</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>231</v>
+        <v>382</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -9188,7 +9213,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9206,10 +9231,10 @@
         <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>42</v>
@@ -9223,7 +9248,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9249,16 +9274,16 @@
         <v>167</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -9307,7 +9332,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9325,10 +9350,10 @@
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>42</v>
@@ -9342,7 +9367,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9368,16 +9393,16 @@
         <v>186</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -9426,7 +9451,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9444,10 +9469,10 @@
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>42</v>
@@ -9461,7 +9486,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9487,10 +9512,10 @@
         <v>174</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9520,10 +9545,10 @@
         <v>177</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -9541,7 +9566,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9559,10 +9584,10 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>42</v>
@@ -9571,12 +9596,12 @@
         <v>42</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9691,7 +9716,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9808,7 +9833,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9927,7 +9952,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10042,7 +10067,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10159,7 +10184,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10243,7 +10268,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10261,10 +10286,10 @@
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>42</v>
@@ -10278,7 +10303,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10304,13 +10329,13 @@
         <v>186</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10360,7 +10385,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10378,10 +10403,10 @@
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>42</v>
@@ -10395,14 +10420,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E72" t="s" s="2">
         <v>43</v>
@@ -10423,14 +10448,14 @@
         <v>71</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -10479,7 +10504,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10494,13 +10519,13 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>42</v>
@@ -10514,7 +10539,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10540,14 +10565,14 @@
         <v>186</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>231</v>
+        <v>382</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -10596,7 +10621,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10614,10 +10639,10 @@
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>42</v>
@@ -10631,7 +10656,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10657,16 +10682,16 @@
         <v>167</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
@@ -10715,7 +10740,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10733,10 +10758,10 @@
         <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>42</v>
@@ -10750,7 +10775,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10776,16 +10801,16 @@
         <v>186</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -10834,7 +10859,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10852,10 +10877,10 @@
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>42</v>
@@ -10869,7 +10894,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10892,13 +10917,13 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10949,7 +10974,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10967,10 +10992,10 @@
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>42</v>
@@ -10984,7 +11009,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11099,7 +11124,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11216,14 +11241,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E79" t="s" s="2">
         <v>43</v>
@@ -11241,19 +11266,19 @@
         <v>53</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -11302,7 +11327,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11317,13 +11342,13 @@
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>42</v>
@@ -11337,7 +11362,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11363,22 +11388,22 @@
         <v>71</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P80" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q80" t="s" s="2">
         <v>42</v>
@@ -11402,10 +11427,10 @@
         <v>160</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -11423,7 +11448,7 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11441,10 +11466,10 @@
         <v>42</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>42</v>
@@ -11458,14 +11483,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E81" t="s" s="2">
         <v>43</v>
@@ -11486,14 +11511,14 @@
         <v>186</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -11542,7 +11567,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11557,13 +11582,13 @@
         <v>42</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>42</v>
@@ -11577,7 +11602,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11603,14 +11628,14 @@
         <v>65</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11659,28 +11684,28 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AF82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AL82" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>42</v>
@@ -11694,7 +11719,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11720,16 +11745,16 @@
         <v>71</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11778,7 +11803,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11796,10 +11821,10 @@
         <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>42</v>
@@ -11813,7 +11838,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11836,13 +11861,13 @@
         <v>53</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11893,7 +11918,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11905,22 +11930,22 @@
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>42</v>
@@ -11928,7 +11953,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12043,7 +12068,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12160,11 +12185,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12189,7 +12214,7 @@
         <v>144</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>146</v>
@@ -12242,7 +12267,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12277,7 +12302,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12303,10 +12328,10 @@
         <v>174</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12336,10 +12361,10 @@
         <v>75</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
@@ -12357,7 +12382,7 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12378,13 +12403,13 @@
         <v>42</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>42</v>
@@ -12392,7 +12417,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12507,7 +12532,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12624,7 +12649,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12743,7 +12768,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12858,7 +12883,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12975,7 +13000,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13059,7 +13084,7 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13077,10 +13102,10 @@
         <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>42</v>
@@ -13094,7 +13119,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13120,13 +13145,13 @@
         <v>186</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13176,7 +13201,7 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13194,10 +13219,10 @@
         <v>42</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>42</v>
@@ -13211,7 +13236,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13237,21 +13262,21 @@
         <v>71</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>224</v>
+        <v>491</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>42</v>
@@ -13293,7 +13318,7 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13311,10 +13336,10 @@
         <v>42</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>42</v>
@@ -13328,7 +13353,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13354,14 +13379,14 @@
         <v>186</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>231</v>
+        <v>382</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -13410,7 +13435,7 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13428,10 +13453,10 @@
         <v>42</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>42</v>
@@ -13445,7 +13470,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13471,16 +13496,16 @@
         <v>167</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
@@ -13529,7 +13554,7 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13547,10 +13572,10 @@
         <v>42</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>42</v>
@@ -13564,7 +13589,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13590,16 +13615,16 @@
         <v>186</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -13648,7 +13673,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -13666,10 +13691,10 @@
         <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>42</v>
@@ -13683,14 +13708,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E100" t="s" s="2">
         <v>52</v>
@@ -13708,13 +13733,13 @@
         <v>53</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13765,7 +13790,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>52</v>
@@ -13780,19 +13805,19 @@
         <v>42</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>42</v>
@@ -13800,14 +13825,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E101" t="s" s="2">
         <v>43</v>
@@ -13825,13 +13850,13 @@
         <v>53</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13882,7 +13907,7 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -13897,19 +13922,19 @@
         <v>42</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>42</v>
@@ -13917,7 +13942,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13940,13 +13965,13 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13997,7 +14022,7 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14009,7 +14034,7 @@
         <v>42</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>42</v>
@@ -14032,7 +14057,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14147,7 +14172,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14264,11 +14289,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14293,7 +14318,7 @@
         <v>144</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>146</v>
@@ -14346,7 +14371,7 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14381,7 +14406,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14407,10 +14432,10 @@
         <v>174</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14440,10 +14465,10 @@
         <v>177</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>42</v>
@@ -14461,7 +14486,7 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14482,13 +14507,13 @@
         <v>42</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>42</v>
@@ -14496,7 +14521,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14522,10 +14547,10 @@
         <v>174</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14555,10 +14580,10 @@
         <v>177</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>42</v>
@@ -14576,7 +14601,7 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14594,7 +14619,7 @@
         <v>42</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>171</v>
@@ -14603,7 +14628,7 @@
         <v>42</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>42</v>
@@ -14611,7 +14636,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14634,16 +14659,16 @@
         <v>42</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14693,7 +14718,7 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14705,16 +14730,16 @@
         <v>42</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>42</v>
@@ -14728,7 +14753,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14843,7 +14868,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14960,11 +14985,11 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14989,7 +15014,7 @@
         <v>144</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>146</v>
@@ -15042,7 +15067,7 @@
         <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15077,7 +15102,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15100,13 +15125,13 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15157,7 +15182,7 @@
         <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15175,10 +15200,10 @@
         <v>42</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>42</v>
@@ -15192,7 +15217,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15215,13 +15240,13 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15272,7 +15297,7 @@
         <v>42</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15290,10 +15315,10 @@
         <v>42</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>42</v>
@@ -15307,7 +15332,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15333,10 +15358,10 @@
         <v>167</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15387,7 +15412,7 @@
         <v>42</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15405,10 +15430,10 @@
         <v>42</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>42</v>
@@ -15422,7 +15447,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15445,13 +15470,13 @@
         <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15502,7 +15527,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -15514,16 +15539,16 @@
         <v>42</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>42</v>
@@ -15537,7 +15562,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15652,7 +15677,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15765,16 +15790,16 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="E118" t="s" s="2">
         <v>43</v>
@@ -15792,13 +15817,13 @@
         <v>42</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15864,7 +15889,7 @@
         <v>109</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>42</v>
@@ -15884,11 +15909,11 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15913,7 +15938,7 @@
         <v>144</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>146</v>
@@ -15966,7 +15991,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -16001,7 +16026,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16024,13 +16049,13 @@
         <v>42</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16081,7 +16106,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16102,7 +16127,7 @@
         <v>42</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>42</v>
@@ -16116,7 +16141,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16142,10 +16167,10 @@
         <v>186</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -16196,7 +16221,7 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16217,7 +16242,7 @@
         <v>42</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>42</v>
@@ -16231,7 +16256,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16254,13 +16279,13 @@
         <v>42</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16311,7 +16336,7 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16332,7 +16357,7 @@
         <v>42</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>42</v>
@@ -16346,7 +16371,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16372,10 +16397,10 @@
         <v>186</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16426,7 +16451,7 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16447,7 +16472,7 @@
         <v>42</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>42</v>
@@ -16461,7 +16486,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16484,13 +16509,13 @@
         <v>42</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16541,7 +16566,7 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -16562,7 +16587,7 @@
         <v>42</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>42</v>
@@ -16576,7 +16601,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16602,10 +16627,10 @@
         <v>174</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16635,10 +16660,10 @@
         <v>177</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
@@ -16656,7 +16681,7 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>52</v>
@@ -16677,7 +16702,7 @@
         <v>42</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>42</v>
@@ -16691,7 +16716,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16717,13 +16742,13 @@
         <v>174</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16752,10 +16777,10 @@
         <v>177</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
@@ -16773,7 +16798,7 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>52</v>
@@ -16794,7 +16819,7 @@
         <v>42</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>42</v>
@@ -16808,7 +16833,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16834,10 +16859,10 @@
         <v>174</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16867,10 +16892,10 @@
         <v>177</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>42</v>
@@ -16888,7 +16913,7 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -16909,7 +16934,7 @@
         <v>42</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>42</v>

--- a/docs/StructureDefinition-VAImmunization.xlsx
+++ b/docs/StructureDefinition-VAImmunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4696" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="611">
   <si>
     <t>Path</t>
   </si>
@@ -1706,14 +1706,20 @@
     <t>Immunization.reaction.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t>REACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/VAImmunizationReaction)
 </t>
   </si>
   <si>
-    <t>Additional information on reaction</t>
-  </si>
-  <si>
-    <t>Details of the reaction.</t>
+    <t>Reactions</t>
+  </si>
+  <si>
+    <t>This is the reaction that may have been observed by the provider as a result of the immunization given.</t>
+  </si>
+  <si>
+    <t>V IMMUNIZATION FILE @REACTION 9000010.11-.06</t>
   </si>
   <si>
     <t>OBX-5</t>
@@ -15215,7 +15221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>546</v>
       </c>
@@ -15223,7 +15229,9 @@
       <c r="C113" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="E113" t="s" s="2">
         <v>43</v>
       </c>
@@ -15231,7 +15239,7 @@
         <v>52</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>42</v>
@@ -15240,13 +15248,13 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15312,13 +15320,13 @@
         <v>42</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>42</v>
+        <v>551</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>42</v>
@@ -15332,7 +15340,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15358,10 +15366,10 @@
         <v>167</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15412,7 +15420,7 @@
         <v>42</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15430,10 +15438,10 @@
         <v>42</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>42</v>
@@ -15447,7 +15455,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15473,10 +15481,10 @@
         <v>463</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15527,7 +15535,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -15545,10 +15553,10 @@
         <v>42</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>42</v>
@@ -15562,7 +15570,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15677,7 +15685,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15790,16 +15798,16 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E118" t="s" s="2">
         <v>43</v>
@@ -15817,13 +15825,13 @@
         <v>42</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15889,7 +15897,7 @@
         <v>109</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>42</v>
@@ -15909,7 +15917,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16026,7 +16034,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16049,13 +16057,13 @@
         <v>42</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16106,7 +16114,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16127,7 +16135,7 @@
         <v>42</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>42</v>
@@ -16141,7 +16149,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16167,10 +16175,10 @@
         <v>186</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -16221,7 +16229,7 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16242,7 +16250,7 @@
         <v>42</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>42</v>
@@ -16256,7 +16264,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16282,10 +16290,10 @@
         <v>339</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16336,7 +16344,7 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16357,7 +16365,7 @@
         <v>42</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>42</v>
@@ -16371,7 +16379,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16397,10 +16405,10 @@
         <v>186</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16451,7 +16459,7 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16472,7 +16480,7 @@
         <v>42</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>42</v>
@@ -16486,7 +16494,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16509,13 +16517,13 @@
         <v>42</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16566,7 +16574,7 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -16587,7 +16595,7 @@
         <v>42</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>42</v>
@@ -16601,7 +16609,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16627,10 +16635,10 @@
         <v>174</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16660,10 +16668,10 @@
         <v>177</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
@@ -16681,7 +16689,7 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>52</v>
@@ -16702,7 +16710,7 @@
         <v>42</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>42</v>
@@ -16716,7 +16724,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16742,13 +16750,13 @@
         <v>174</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16777,10 +16785,10 @@
         <v>177</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
@@ -16798,7 +16806,7 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>52</v>
@@ -16819,7 +16827,7 @@
         <v>42</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>42</v>
@@ -16833,7 +16841,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16859,10 +16867,10 @@
         <v>174</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16892,10 +16900,10 @@
         <v>177</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>42</v>
@@ -16913,7 +16921,7 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -16934,7 +16942,7 @@
         <v>42</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>42</v>
